--- a/spec/fixtures/dropbox/example_batch_ingest/batch_manifest.xlsx
+++ b/spec/fixtures/dropbox/example_batch_ingest/batch_manifest.xlsx
@@ -5,166 +5,177 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
-  <si>
-    <t>Frances Dickens</t>
-  </si>
-  <si>
-    <t>frances.dickens@reichel.com</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Creator</t>
-  </si>
-  <si>
-    <t>Date Issued</t>
-  </si>
-  <si>
-    <t>Hidden</t>
-  </si>
-  <si>
-    <t>Bibliographic ID</t>
-  </si>
-  <si>
-    <t>Bibliographic ID Label</t>
-  </si>
-  <si>
-    <t>Related Item URL</t>
-  </si>
-  <si>
-    <t>Related Item Label</t>
-  </si>
-  <si>
-    <t>Terms of Use</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Physical Description</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Note Type</t>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>Offset</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Date Digitized</t>
-  </si>
-  <si>
-    <t>Skip Transcoding</t>
-  </si>
-  <si>
-    <t>Absolute Location</t>
-  </si>
-  <si>
-    <t>Abstract</t>
-  </si>
-  <si>
-    <t>Statement Of Responsibility</t>
-  </si>
-  <si>
-    <t>Dolorum</t>
-  </si>
-  <si>
-    <t>Carroll, Nora</t>
-  </si>
-  <si>
-    <t>http://www.example.com/text.pdf</t>
-  </si>
-  <si>
-    <t>Example Item PDF</t>
-  </si>
-  <si>
-    <t>Terms of Use Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>16mm Reel</t>
-  </si>
-  <si>
-    <t>This is a test general note</t>
-  </si>
-  <si>
-    <t>general</t>
-  </si>
-  <si>
-    <t>assets/sheephead_mountain.mov</t>
-  </si>
-  <si>
-    <t>00:00:00.500</t>
-  </si>
-  <si>
-    <t>Quis quo</t>
-  </si>
-  <si>
-    <t>Unde aliquid</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>file:///tmp/sheephead_mountain_master.mov</t>
-  </si>
-  <si>
-    <t>assets/jazz-performance.mp3</t>
-  </si>
-  <si>
-    <t>Audio</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Test abstract</t>
-  </si>
-  <si>
-    <t>Test Statement of Responsibility</t>
-  </si>
-  <si>
-    <t>Laborum</t>
-  </si>
-  <si>
-    <t>Moen, Eveline</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>This is a test awards note</t>
-  </si>
-  <si>
-    <t>awards</t>
-  </si>
-  <si>
-    <t>7763100</t>
-  </si>
-  <si>
-    <t>local</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+  <si>
+    <t xml:space="preserve">Frances Dickens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frances.dickens@reichel.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Issued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bibliographic ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bibliographic ID Label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Related Item URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Related Item Label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terms of Use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Digitized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skip Transcoding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolute Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statement Of Responsibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topical Subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dolorum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carroll, Nora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.example.com/text.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Example Item PDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terms of Use Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16mm Reel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a test general note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assets/sheephead_mountain.mov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:00.500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quis quo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unde aliquid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file:///tmp/sheephead_mountain_master.mov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assets/jazz-performance.mp3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test abstract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Statement of Responsibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laborum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moen, Eveline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a test awards note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">awards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7763100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">local</t>
   </si>
 </sst>
 </file>
@@ -172,8 +183,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="YYYY/MM/DD"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -287,19 +298,23 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q4" activeCellId="0" sqref="Q4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AD4" activeCellId="0" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.84074074074074"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.9925925925926"/>
-    <col collapsed="false" hidden="false" max="22" min="6" style="0" width="8.84074074074074"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="12.5037037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="8.84074074074074"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.3074074074074"/>
+    <col collapsed="false" hidden="false" max="22" min="6" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="12.7407407407407"/>
+    <col collapsed="false" hidden="false" max="27" min="24" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="28.2407407407407"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="14.4185185185185"/>
+    <col collapsed="false" hidden="false" max="1025" min="31" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -396,126 +411,144 @@
       <c r="AB2" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="AC2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD2" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2012</v>
       </c>
       <c r="D3" s="2"/>
       <c r="G3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="3" t="n">
         <v>42307</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W3" s="4" t="n">
         <v>42308</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AA3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="AC3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD3" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2011</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W4" s="4" t="n">
         <v>42302</v>
       </c>
       <c r="AA4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="AC4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD4" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/spec/fixtures/dropbox/example_batch_ingest/batch_manifest.xlsx
+++ b/spec/fixtures/dropbox/example_batch_ingest/batch_manifest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t xml:space="preserve">Frances Dickens</t>
   </si>
@@ -94,6 +94,9 @@
     <t xml:space="preserve">Topical Subject</t>
   </si>
   <si>
+    <t xml:space="preserve">Genre</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dolorum</t>
   </si>
   <si>
@@ -157,6 +160,9 @@
     <t xml:space="preserve">Test subject</t>
   </si>
   <si>
+    <t xml:space="preserve">Aviation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Laborum</t>
   </si>
   <si>
@@ -166,10 +172,16 @@
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
+    <t xml:space="preserve">French</t>
+  </si>
+  <si>
     <t xml:space="preserve">This is a test awards note</t>
   </si>
   <si>
     <t xml:space="preserve">awards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travel</t>
   </si>
   <si>
     <t xml:space="preserve">7763100</t>
@@ -300,21 +312,21 @@
   </sheetPr>
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD4" activeCellId="0" sqref="AD4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AD5" activeCellId="0" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="9.01481481481481"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.3074074074074"/>
-    <col collapsed="false" hidden="false" max="22" min="6" style="0" width="9.01481481481481"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="12.7407407407407"/>
-    <col collapsed="false" hidden="false" max="27" min="24" style="0" width="9.01481481481481"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="28.2407407407407"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="9.01481481481481"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="14.4185185185185"/>
-    <col collapsed="false" hidden="false" max="1025" min="31" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.6"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.3518518518519"/>
+    <col collapsed="false" hidden="false" max="22" min="7" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="12.937037037037"/>
+    <col collapsed="false" hidden="false" max="27" min="24" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="28.9074074074074"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="14.7"/>
+    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -412,143 +424,149 @@
         <v>22</v>
       </c>
       <c r="AC2" s="0" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2012</v>
       </c>
       <c r="D3" s="2"/>
       <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="3" t="n">
         <v>42307</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W3" s="4" t="n">
         <v>42308</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AD3" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2011</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>50</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W4" s="4" t="n">
         <v>42302</v>
       </c>
       <c r="AA4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC4" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="AD5" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
